--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Sdc2</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.197427</v>
+        <v>4.326658</v>
       </c>
       <c r="H2">
-        <v>0.394854</v>
+        <v>8.653316</v>
       </c>
       <c r="I2">
-        <v>0.000452391028090995</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J2">
-        <v>0.0003016395050625994</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9991829999999999</v>
+        <v>4.020434</v>
       </c>
       <c r="N2">
-        <v>1.998366</v>
+        <v>8.040868</v>
       </c>
       <c r="O2">
-        <v>0.01488714493203248</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P2">
-        <v>0.01137801272088475</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q2">
-        <v>0.197265702141</v>
+        <v>17.395042929572</v>
       </c>
       <c r="R2">
-        <v>0.7890628085639999</v>
+        <v>69.580171718288</v>
       </c>
       <c r="S2">
-        <v>6.734810801141818E-06</v>
+        <v>0.0004526059643354196</v>
       </c>
       <c r="T2">
-        <v>3.432058125723636E-06</v>
+        <v>0.0002303372429276841</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.197427</v>
+        <v>4.326658</v>
       </c>
       <c r="H3">
-        <v>0.394854</v>
+        <v>8.653316</v>
       </c>
       <c r="I3">
-        <v>0.000452391028090995</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J3">
-        <v>0.0003016395050625994</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>118.695864</v>
       </c>
       <c r="O3">
-        <v>0.5894957947979553</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P3">
-        <v>0.6758136650185235</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q3">
-        <v>7.811256113976</v>
+        <v>171.185469847504</v>
       </c>
       <c r="R3">
-        <v>46.867536683856</v>
+        <v>1027.112819085024</v>
       </c>
       <c r="S3">
-        <v>0.0002666826086639652</v>
+        <v>0.004454117473250054</v>
       </c>
       <c r="T3">
-        <v>0.0002038520994307287</v>
+        <v>0.003400140141671192</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,93 +652,93 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.197427</v>
+        <v>4.326658</v>
       </c>
       <c r="H4">
-        <v>0.394854</v>
+        <v>8.653316</v>
       </c>
       <c r="I4">
-        <v>0.000452391028090995</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J4">
-        <v>0.0003016395050625994</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06171066666666666</v>
+        <v>19.035871</v>
       </c>
       <c r="N4">
-        <v>0.185132</v>
+        <v>38.071742</v>
       </c>
       <c r="O4">
-        <v>0.0009194468265763251</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P4">
-        <v>0.001054078307498645</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q4">
-        <v>0.012183351788</v>
+        <v>82.361703549118</v>
       </c>
       <c r="R4">
-        <v>0.07310011072799999</v>
+        <v>329.446814196472</v>
       </c>
       <c r="S4">
-        <v>4.159494951498665E-07</v>
+        <v>0.002142989724721174</v>
       </c>
       <c r="T4">
-        <v>3.179516589711136E-07</v>
+        <v>0.001090596200028916</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.197427</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H5">
-        <v>0.394854</v>
+        <v>3.752158</v>
       </c>
       <c r="I5">
-        <v>0.000452391028090995</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J5">
-        <v>0.0003016395050625994</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,60 +747,60 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.7183095</v>
+        <v>4.020434</v>
       </c>
       <c r="N5">
-        <v>49.436619</v>
+        <v>8.040868</v>
       </c>
       <c r="O5">
-        <v>0.3682859456189059</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P5">
-        <v>0.2814752051723923</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q5">
-        <v>4.880061689656499</v>
+        <v>5.028434532190666</v>
       </c>
       <c r="R5">
-        <v>19.520246758626</v>
+        <v>30.170607193144</v>
       </c>
       <c r="S5">
-        <v>0.0001666092575700011</v>
+        <v>0.0001308360933487894</v>
       </c>
       <c r="T5">
-        <v>8.490404157559403E-05</v>
+        <v>9.987636285893793E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.197427</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H6">
-        <v>0.394854</v>
+        <v>3.752158</v>
       </c>
       <c r="I6">
-        <v>0.000452391028090995</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J6">
-        <v>0.0003016395050625994</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.772676333333333</v>
+        <v>39.565288</v>
       </c>
       <c r="N6">
-        <v>5.318029</v>
+        <v>118.695864</v>
       </c>
       <c r="O6">
-        <v>0.02641166782452989</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P6">
-        <v>0.03027903878070085</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q6">
-        <v>0.349974170461</v>
+        <v>49.48507063050133</v>
       </c>
       <c r="R6">
-        <v>2.099845022766</v>
+        <v>445.365635674512</v>
       </c>
       <c r="S6">
-        <v>1.194840156073693E-05</v>
+        <v>0.001287564405768068</v>
       </c>
       <c r="T6">
-        <v>9.133354271581855E-06</v>
+        <v>0.001474332271431287</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>3.752158</v>
       </c>
       <c r="I7">
-        <v>0.002865941360907832</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J7">
-        <v>0.002866373601474653</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,184 +871,184 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9991829999999999</v>
+        <v>19.035871</v>
       </c>
       <c r="N7">
-        <v>1.998366</v>
+        <v>38.071742</v>
       </c>
       <c r="O7">
-        <v>0.01488714493203248</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P7">
-        <v>0.01137801272088475</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q7">
-        <v>1.249697495638</v>
+        <v>23.80853188653933</v>
       </c>
       <c r="R7">
-        <v>7.498184973827999</v>
+        <v>142.851191319236</v>
       </c>
       <c r="S7">
-        <v>4.266568440654129E-05</v>
+        <v>0.0006194801345157048</v>
       </c>
       <c r="T7">
-        <v>3.261363530038684E-05</v>
+        <v>0.0004728926178944695</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.250719333333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H8">
-        <v>3.752158</v>
+        <v>327.233857</v>
       </c>
       <c r="I8">
-        <v>0.002865941360907832</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J8">
-        <v>0.002866373601474653</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.565288</v>
+        <v>4.020434</v>
       </c>
       <c r="N8">
-        <v>118.695864</v>
+        <v>8.040868</v>
       </c>
       <c r="O8">
-        <v>0.5894957947979553</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P8">
-        <v>0.6758136650185235</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q8">
-        <v>49.48507063050133</v>
+        <v>438.5407082113126</v>
       </c>
       <c r="R8">
-        <v>445.365635674512</v>
+        <v>2631.244249267876</v>
       </c>
       <c r="S8">
-        <v>0.001689460380392696</v>
+        <v>0.01141050016053066</v>
       </c>
       <c r="T8">
-        <v>0.00193713444892493</v>
+        <v>0.008710434752870696</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1.250719333333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H9">
-        <v>3.752158</v>
+        <v>327.233857</v>
       </c>
       <c r="I9">
-        <v>0.002865941360907832</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J9">
-        <v>0.002866373601474653</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06171066666666666</v>
+        <v>39.565288</v>
       </c>
       <c r="N9">
-        <v>0.185132</v>
+        <v>118.695864</v>
       </c>
       <c r="O9">
-        <v>0.0009194468265763251</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P9">
-        <v>0.001054078307498645</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q9">
-        <v>0.07718272387288888</v>
+        <v>4315.700598518605</v>
       </c>
       <c r="R9">
-        <v>0.6946445148559999</v>
+        <v>38841.30538666745</v>
       </c>
       <c r="S9">
-        <v>2.63508068944054E-06</v>
+        <v>0.1122912912077258</v>
       </c>
       <c r="T9">
-        <v>3.021382234501196E-06</v>
+        <v>0.1285797228368397</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.250719333333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H10">
-        <v>3.752158</v>
+        <v>327.233857</v>
       </c>
       <c r="I10">
-        <v>0.002865941360907832</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J10">
-        <v>0.002866373601474653</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,228 +1057,228 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.7183095</v>
+        <v>19.035871</v>
       </c>
       <c r="N10">
-        <v>49.436619</v>
+        <v>38.071742</v>
       </c>
       <c r="O10">
-        <v>0.3682859456189059</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P10">
-        <v>0.2814752051723923</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q10">
-        <v>30.915667578967</v>
+        <v>2076.393829561482</v>
       </c>
       <c r="R10">
-        <v>185.494005473802</v>
+        <v>12458.36297736889</v>
       </c>
       <c r="S10">
-        <v>0.001055485924190275</v>
+        <v>0.05402620938469353</v>
       </c>
       <c r="T10">
-        <v>0.000806813097575807</v>
+        <v>0.04124199335434021</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>1.250719333333333</v>
+        <v>3.9665605</v>
       </c>
       <c r="H11">
-        <v>3.752158</v>
+        <v>7.933121</v>
       </c>
       <c r="I11">
-        <v>0.002865941360907832</v>
+        <v>0.006462982229225337</v>
       </c>
       <c r="J11">
-        <v>0.002866373601474653</v>
+        <v>0.004328149809478357</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.772676333333333</v>
+        <v>4.020434</v>
       </c>
       <c r="N11">
-        <v>5.318029</v>
+        <v>8.040868</v>
       </c>
       <c r="O11">
-        <v>0.02641166782452989</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P11">
-        <v>0.03027903878070085</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q11">
-        <v>2.217120561842445</v>
+        <v>15.947294697257</v>
       </c>
       <c r="R11">
-        <v>19.954085056582</v>
+        <v>63.78917878902799</v>
       </c>
       <c r="S11">
-        <v>7.569429122887878E-05</v>
+        <v>0.0004149366416752339</v>
       </c>
       <c r="T11">
-        <v>8.679103743902817E-05</v>
+        <v>0.0002111668196274945</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>3.9665605</v>
+      </c>
+      <c r="H12">
+        <v>7.933121</v>
+      </c>
+      <c r="I12">
+        <v>0.006462982229225337</v>
+      </c>
+      <c r="J12">
+        <v>0.004328149809478357</v>
+      </c>
+      <c r="K12">
         <v>3</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>262.0776013333333</v>
-      </c>
-      <c r="H12">
-        <v>786.232804</v>
-      </c>
-      <c r="I12">
-        <v>0.6005336428492992</v>
-      </c>
-      <c r="J12">
-        <v>0.6006242151847004</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9991829999999999</v>
+        <v>39.565288</v>
       </c>
       <c r="N12">
-        <v>1.998366</v>
+        <v>118.695864</v>
       </c>
       <c r="O12">
-        <v>0.01488714493203248</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P12">
-        <v>0.01137801272088475</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q12">
-        <v>261.863483933044</v>
+        <v>156.938108551924</v>
       </c>
       <c r="R12">
-        <v>1571.180903598264</v>
+        <v>941.628651311544</v>
       </c>
       <c r="S12">
-        <v>0.008940231377658946</v>
+        <v>0.004083411823110001</v>
       </c>
       <c r="T12">
-        <v>0.006833909960842943</v>
+        <v>0.003117154529065471</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>262.0776013333333</v>
+        <v>3.9665605</v>
       </c>
       <c r="H13">
-        <v>786.232804</v>
+        <v>7.933121</v>
       </c>
       <c r="I13">
-        <v>0.6005336428492992</v>
+        <v>0.006462982229225337</v>
       </c>
       <c r="J13">
-        <v>0.6006242151847004</v>
+        <v>0.004328149809478357</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>39.565288</v>
+        <v>19.035871</v>
       </c>
       <c r="N13">
-        <v>118.695864</v>
+        <v>38.071742</v>
       </c>
       <c r="O13">
-        <v>0.5894957947979553</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P13">
-        <v>0.6758136650185235</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q13">
-        <v>10369.17577510252</v>
+        <v>75.5069339916955</v>
       </c>
       <c r="R13">
-        <v>93322.58197592266</v>
+        <v>302.027735966782</v>
       </c>
       <c r="S13">
-        <v>0.3540120570943591</v>
+        <v>0.001964633764440102</v>
       </c>
       <c r="T13">
-        <v>0.4059100521628467</v>
+        <v>0.0009998284607853913</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,60 +1287,60 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>262.0776013333333</v>
+        <v>65.86335866666667</v>
       </c>
       <c r="H14">
-        <v>786.232804</v>
+        <v>197.590076</v>
       </c>
       <c r="I14">
-        <v>0.6005336428492992</v>
+        <v>0.1073155739386204</v>
       </c>
       <c r="J14">
-        <v>0.6006242151847004</v>
+        <v>0.1078011352397391</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.06171066666666666</v>
+        <v>4.020434</v>
       </c>
       <c r="N14">
-        <v>0.185132</v>
+        <v>8.040868</v>
       </c>
       <c r="O14">
-        <v>0.0009194468265763251</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P14">
-        <v>0.001054078307498645</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q14">
-        <v>16.17298349668089</v>
+        <v>264.7992865376613</v>
       </c>
       <c r="R14">
-        <v>145.556851470128</v>
+        <v>1588.795719225968</v>
       </c>
       <c r="S14">
-        <v>0.0005521587521701084</v>
+        <v>0.006889878738669958</v>
       </c>
       <c r="T14">
-        <v>0.0006331049561845907</v>
+        <v>0.005259527484690443</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,57 +1349,57 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>262.0776013333333</v>
+        <v>65.86335866666667</v>
       </c>
       <c r="H15">
-        <v>786.232804</v>
+        <v>197.590076</v>
       </c>
       <c r="I15">
-        <v>0.6005336428492992</v>
+        <v>0.1073155739386204</v>
       </c>
       <c r="J15">
-        <v>0.6006242151847004</v>
+        <v>0.1078011352397391</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>24.7183095</v>
+        <v>39.565288</v>
       </c>
       <c r="N15">
-        <v>49.436619</v>
+        <v>118.695864</v>
       </c>
       <c r="O15">
-        <v>0.3682859456189059</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P15">
-        <v>0.2814752051723923</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q15">
-        <v>6478.115262774946</v>
+        <v>2605.902754293963</v>
       </c>
       <c r="R15">
-        <v>38868.69157664967</v>
+        <v>23453.12478864567</v>
       </c>
       <c r="S15">
-        <v>0.2211681005327205</v>
+        <v>0.06780363427942199</v>
       </c>
       <c r="T15">
-        <v>0.1690608242006207</v>
+        <v>0.07763890154981762</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -1411,57 +1411,57 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>262.0776013333333</v>
+        <v>65.86335866666667</v>
       </c>
       <c r="H16">
-        <v>786.232804</v>
+        <v>197.590076</v>
       </c>
       <c r="I16">
-        <v>0.6005336428492992</v>
+        <v>0.1073155739386204</v>
       </c>
       <c r="J16">
-        <v>0.6006242151847004</v>
+        <v>0.1078011352397391</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.772676333333333</v>
+        <v>19.035871</v>
       </c>
       <c r="N16">
-        <v>5.318029</v>
+        <v>38.071742</v>
       </c>
       <c r="O16">
-        <v>0.02641166782452989</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P16">
-        <v>0.03027903878070085</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q16">
-        <v>464.5787613803685</v>
+        <v>1253.766399205399</v>
       </c>
       <c r="R16">
-        <v>4181.208852423316</v>
+        <v>7522.598395232392</v>
       </c>
       <c r="S16">
-        <v>0.01586109509239056</v>
+        <v>0.0326220609205285</v>
       </c>
       <c r="T16">
-        <v>0.01818632390420555</v>
+        <v>0.02490270620523102</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.770183</v>
+        <v>429.2500763333333</v>
       </c>
       <c r="H17">
-        <v>5.310549</v>
+        <v>1287.750229</v>
       </c>
       <c r="I17">
-        <v>0.004056258299418022</v>
+        <v>0.6994058492832651</v>
       </c>
       <c r="J17">
-        <v>0.004056870063290943</v>
+        <v>0.7025703891699194</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,39 +1491,39 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9991829999999999</v>
+        <v>4.020434</v>
       </c>
       <c r="N17">
-        <v>1.998366</v>
+        <v>8.040868</v>
       </c>
       <c r="O17">
-        <v>0.01488714493203248</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P17">
-        <v>0.01137801272088475</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q17">
-        <v>1.768736760489</v>
+        <v>1725.771601393129</v>
       </c>
       <c r="R17">
-        <v>10.612420562934</v>
+        <v>10354.62960835877</v>
       </c>
       <c r="S17">
-        <v>6.038610518519568E-05</v>
+        <v>0.04490328210362381</v>
       </c>
       <c r="T17">
-        <v>4.615911918710088E-05</v>
+        <v>0.03427782336012621</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.770183</v>
+        <v>429.2500763333333</v>
       </c>
       <c r="H18">
-        <v>5.310549</v>
+        <v>1287.750229</v>
       </c>
       <c r="I18">
-        <v>0.004056258299418022</v>
+        <v>0.6994058492832651</v>
       </c>
       <c r="J18">
-        <v>0.004056870063290943</v>
+        <v>0.7025703891699194</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,36 +1559,36 @@
         <v>118.695864</v>
       </c>
       <c r="O18">
-        <v>0.5894957947979553</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P18">
-        <v>0.6758136650185235</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q18">
-        <v>70.03780020770401</v>
+        <v>16983.40289415032</v>
       </c>
       <c r="R18">
-        <v>630.3402018693359</v>
+        <v>152850.6260473529</v>
       </c>
       <c r="S18">
-        <v>0.00239114721012123</v>
+        <v>0.441895399495458</v>
       </c>
       <c r="T18">
-        <v>0.002741688225976581</v>
+        <v>0.5059946090110623</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,480 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.770183</v>
+        <v>429.2500763333333</v>
       </c>
       <c r="H19">
-        <v>5.310549</v>
+        <v>1287.750229</v>
       </c>
       <c r="I19">
-        <v>0.004056258299418022</v>
+        <v>0.6994058492832651</v>
       </c>
       <c r="J19">
-        <v>0.004056870063290943</v>
+        <v>0.7025703891699194</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.06171066666666666</v>
+        <v>19.035871</v>
       </c>
       <c r="N19">
-        <v>0.185132</v>
+        <v>38.071742</v>
       </c>
       <c r="O19">
-        <v>0.0009194468265763251</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P19">
-        <v>0.001054078307498645</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q19">
-        <v>0.109239173052</v>
+        <v>8171.149079821486</v>
       </c>
       <c r="R19">
-        <v>0.9831525574679999</v>
+        <v>49026.89447892892</v>
       </c>
       <c r="S19">
-        <v>3.729513821173781E-06</v>
+        <v>0.2126071676841833</v>
       </c>
       <c r="T19">
-        <v>4.276258730055636E-06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1.770183</v>
-      </c>
-      <c r="H20">
-        <v>5.310549</v>
-      </c>
-      <c r="I20">
-        <v>0.004056258299418022</v>
-      </c>
-      <c r="J20">
-        <v>0.004056870063290943</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>24.7183095</v>
-      </c>
-      <c r="N20">
-        <v>49.436619</v>
-      </c>
-      <c r="O20">
-        <v>0.3682859456189059</v>
-      </c>
-      <c r="P20">
-        <v>0.2814752051723923</v>
-      </c>
-      <c r="Q20">
-        <v>43.7559312656385</v>
-      </c>
-      <c r="R20">
-        <v>262.535587593831</v>
-      </c>
-      <c r="S20">
-        <v>0.001493862923475701</v>
-      </c>
-      <c r="T20">
-        <v>0.001141908333422554</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.770183</v>
-      </c>
-      <c r="H21">
-        <v>5.310549</v>
-      </c>
-      <c r="I21">
-        <v>0.004056258299418022</v>
-      </c>
-      <c r="J21">
-        <v>0.004056870063290943</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.772676333333333</v>
-      </c>
-      <c r="N21">
-        <v>5.318029</v>
-      </c>
-      <c r="O21">
-        <v>0.02641166782452989</v>
-      </c>
-      <c r="P21">
-        <v>0.03027903878070085</v>
-      </c>
-      <c r="Q21">
-        <v>3.137961509769</v>
-      </c>
-      <c r="R21">
-        <v>28.241653587921</v>
-      </c>
-      <c r="S21">
-        <v>0.0001071325468147213</v>
-      </c>
-      <c r="T21">
-        <v>0.0001228381259746507</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>171.1119283333333</v>
-      </c>
-      <c r="H22">
-        <v>513.335785</v>
-      </c>
-      <c r="I22">
-        <v>0.3920917664622839</v>
-      </c>
-      <c r="J22">
-        <v>0.3921509016454713</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.9991829999999999</v>
-      </c>
-      <c r="N22">
-        <v>1.998366</v>
-      </c>
-      <c r="O22">
-        <v>0.01488714493203248</v>
-      </c>
-      <c r="P22">
-        <v>0.01137801272088475</v>
-      </c>
-      <c r="Q22">
-        <v>170.972129887885</v>
-      </c>
-      <c r="R22">
-        <v>1025.83277932731</v>
-      </c>
-      <c r="S22">
-        <v>0.005837126953980651</v>
-      </c>
-      <c r="T22">
-        <v>0.004461897947428598</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>171.1119283333333</v>
-      </c>
-      <c r="H23">
-        <v>513.335785</v>
-      </c>
-      <c r="I23">
-        <v>0.3920917664622839</v>
-      </c>
-      <c r="J23">
-        <v>0.3921509016454713</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>39.565288</v>
-      </c>
-      <c r="N23">
-        <v>118.695864</v>
-      </c>
-      <c r="O23">
-        <v>0.5894957947979553</v>
-      </c>
-      <c r="P23">
-        <v>0.6758136650185235</v>
-      </c>
-      <c r="Q23">
-        <v>6770.092724743694</v>
-      </c>
-      <c r="R23">
-        <v>60930.83452269324</v>
-      </c>
-      <c r="S23">
-        <v>0.2311364475044183</v>
-      </c>
-      <c r="T23">
-        <v>0.2650209380813445</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>171.1119283333333</v>
-      </c>
-      <c r="H24">
-        <v>513.335785</v>
-      </c>
-      <c r="I24">
-        <v>0.3920917664622839</v>
-      </c>
-      <c r="J24">
-        <v>0.3921509016454713</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.06171066666666666</v>
-      </c>
-      <c r="N24">
-        <v>0.185132</v>
-      </c>
-      <c r="O24">
-        <v>0.0009194468265763251</v>
-      </c>
-      <c r="P24">
-        <v>0.001054078307498645</v>
-      </c>
-      <c r="Q24">
-        <v>10.55943117206889</v>
-      </c>
-      <c r="R24">
-        <v>95.03488054862</v>
-      </c>
-      <c r="S24">
-        <v>0.0003605075304004525</v>
-      </c>
-      <c r="T24">
-        <v>0.0004133577586905258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>171.1119283333333</v>
-      </c>
-      <c r="H25">
-        <v>513.335785</v>
-      </c>
-      <c r="I25">
-        <v>0.3920917664622839</v>
-      </c>
-      <c r="J25">
-        <v>0.3921509016454713</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>24.7183095</v>
-      </c>
-      <c r="N25">
-        <v>49.436619</v>
-      </c>
-      <c r="O25">
-        <v>0.3682859456189059</v>
-      </c>
-      <c r="P25">
-        <v>0.2814752051723923</v>
-      </c>
-      <c r="Q25">
-        <v>4229.597603685153</v>
-      </c>
-      <c r="R25">
-        <v>25377.58562211091</v>
-      </c>
-      <c r="S25">
-        <v>0.1444018869809494</v>
-      </c>
-      <c r="T25">
-        <v>0.1103807554991977</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>171.1119283333333</v>
-      </c>
-      <c r="H26">
-        <v>513.335785</v>
-      </c>
-      <c r="I26">
-        <v>0.3920917664622839</v>
-      </c>
-      <c r="J26">
-        <v>0.3921509016454713</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1.772676333333333</v>
-      </c>
-      <c r="N26">
-        <v>5.318029</v>
-      </c>
-      <c r="O26">
-        <v>0.02641166782452989</v>
-      </c>
-      <c r="P26">
-        <v>0.03027903878070085</v>
-      </c>
-      <c r="Q26">
-        <v>303.3260657075294</v>
-      </c>
-      <c r="R26">
-        <v>2729.934591367765</v>
-      </c>
-      <c r="S26">
-        <v>0.01035579749253499</v>
-      </c>
-      <c r="T26">
-        <v>0.01187395235881003</v>
+        <v>0.1622979567987309</v>
       </c>
     </row>
   </sheetData>
